--- a/matlab/statistics/MeanSDiffthdRanalysis.xlsx
+++ b/matlab/statistics/MeanSDiffthdRanalysis.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC45D17-0087-4C2B-86A6-28C1F1EE0AC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3BC1A4-2420-43BF-BE0F-7592AAED17FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Observation</t>
   </si>
@@ -56,6 +62,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>oldThreshold</t>
+  </si>
+  <si>
+    <t>noobject</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,13 +155,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,20 +443,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,13 +470,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -484,8 +501,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>1.99</v>
+      </c>
+      <c r="H2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -504,8 +527,14 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <v>2.02</v>
+      </c>
+      <c r="H3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -524,8 +553,14 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>1.97</v>
+      </c>
+      <c r="H4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -544,8 +579,14 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>1.98</v>
+      </c>
+      <c r="H5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -564,9 +605,15 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
+      <c r="G6">
+        <v>1.94</v>
+      </c>
+      <c r="H6">
+        <v>1.8699999999999999</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -585,8 +632,14 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>1.98</v>
+      </c>
+      <c r="H7">
+        <v>1.8699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -605,8 +658,14 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>2.02</v>
+      </c>
+      <c r="H8">
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -625,8 +684,14 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H9">
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -645,8 +710,14 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>1.94</v>
+      </c>
+      <c r="H10">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -665,8 +736,14 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>1.94</v>
+      </c>
+      <c r="H11">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -685,8 +762,14 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>1.97</v>
+      </c>
+      <c r="H12">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -705,17 +788,14 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>1.98</v>
+      </c>
+      <c r="H13">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -733,6 +813,10 @@
       </c>
       <c r="F14" t="s">
         <v>11</v>
+      </c>
+      <c r="G14">
+        <f>G2-H2</f>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
@@ -742,10 +826,8 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -763,6 +845,10 @@
       </c>
       <c r="F15" t="s">
         <v>11</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G25" si="0">G3-H3</f>
+        <v>0.12000000000000011</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
@@ -773,9 +859,8 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -794,18 +879,12 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -824,18 +903,18 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -854,18 +933,18 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -884,18 +963,12 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.1100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -914,18 +987,18 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000258E-2</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -944,7 +1017,10 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -955,7 +1031,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -974,7 +1050,10 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -982,7 +1061,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1001,8 +1080,12 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1021,8 +1104,12 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1040,6 +1127,10 @@
       </c>
       <c r="F25" t="s">
         <v>11</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
       </c>
     </row>
   </sheetData>
